--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1366669.449081049</v>
+        <v>-1369566.877338686</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.88719820851069</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986267</v>
+        <v>0.6361855654813271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.78545761117468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,28 +741,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16.03944114782558</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4983113685838447</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.21008304703286</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924268</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.21008304703286</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21008304703286</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1029954634698</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,23 +935,23 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>31.0598968356705</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44799022605971</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712463</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
+        <v>13.38870434448781</v>
+      </c>
+      <c r="H8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>64.54245901085127</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>85.36012669354493</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>89.49227226221132</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>5.732180395783814</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>44.7857395045862</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>106.7473372375336</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>206.243343460211</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>310.5443898694868</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>58.17260156872334</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.8977843151208</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853817</v>
+        <v>12.76005920853821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434399</v>
+        <v>28.06485969026786</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.67438361406188</v>
+        <v>82.30038209396096</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651985</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2008,7 +2008,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295091</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,13 +2293,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545723</v>
@@ -2476,25 +2476,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943561</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2539,7 +2539,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642294905</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,13 +2767,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.124505344301</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3241,7 +3241,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3481,13 +3481,13 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179188</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3803,7 +3803,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262546</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,13 +3986,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706660006</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.93856400748464</v>
+        <v>27.43894235510048</v>
       </c>
       <c r="C2" t="n">
-        <v>34.93856400748464</v>
+        <v>27.43894235510048</v>
       </c>
       <c r="D2" t="n">
-        <v>34.93856400748464</v>
+        <v>27.43894235510048</v>
       </c>
       <c r="E2" t="n">
-        <v>34.93856400748464</v>
+        <v>27.43894235510048</v>
       </c>
       <c r="F2" t="n">
-        <v>27.99306325828117</v>
+        <v>20.493441605897</v>
       </c>
       <c r="G2" t="n">
-        <v>13.96559032039159</v>
+        <v>2.099418326066914</v>
       </c>
       <c r="H2" t="n">
-        <v>13.96559032039159</v>
+        <v>2.099418326066914</v>
       </c>
       <c r="I2" t="n">
-        <v>13.96559032039159</v>
+        <v>2.099418326066914</v>
       </c>
       <c r="J2" t="n">
-        <v>13.96559032039159</v>
+        <v>2.099418326066914</v>
       </c>
       <c r="K2" t="n">
-        <v>13.96559032039159</v>
+        <v>2.099418326066914</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032516</v>
+        <v>19.48478886032401</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688769</v>
+        <v>37.51277107688549</v>
       </c>
       <c r="O2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="P2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="R2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="S2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="T2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="U2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="V2" t="n">
-        <v>45.83296563493381</v>
+        <v>45.83296563493057</v>
       </c>
       <c r="W2" t="n">
-        <v>45.83296563493381</v>
+        <v>27.43894235510048</v>
       </c>
       <c r="X2" t="n">
-        <v>45.83296563493381</v>
+        <v>27.43894235510048</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.93856400748464</v>
+        <v>27.43894235510048</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="C3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="D3" t="n">
-        <v>36.05228562846908</v>
+        <v>36.05228562846696</v>
       </c>
       <c r="E3" t="n">
-        <v>36.05228562846908</v>
+        <v>36.05228562846696</v>
       </c>
       <c r="F3" t="n">
-        <v>36.05228562846908</v>
+        <v>19.85082992359263</v>
       </c>
       <c r="G3" t="n">
-        <v>36.05228562846908</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="H3" t="n">
-        <v>36.05228562846908</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="I3" t="n">
-        <v>35.54894081171772</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15491753188655</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032516</v>
+        <v>19.48478886032401</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688769</v>
+        <v>37.51277107688549</v>
       </c>
       <c r="N3" t="n">
-        <v>55.54075329345022</v>
+        <v>55.54075329344695</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089541496</v>
+        <v>72.84033218812715</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218813143</v>
+        <v>72.84033218812715</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.44630890830025</v>
+        <v>72.84033218812715</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890830025</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="S3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="T3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="U3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="V3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="W3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="X3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.05228562846908</v>
+        <v>54.44630890829706</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762629</v>
+        <v>1.456806643762543</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.6181590127069</v>
+        <v>75.07286664965892</v>
       </c>
       <c r="C5" t="n">
-        <v>92.39291106980815</v>
+        <v>75.07286664965892</v>
       </c>
       <c r="D5" t="n">
-        <v>92.39291106980815</v>
+        <v>75.07286664965892</v>
       </c>
       <c r="E5" t="n">
-        <v>42.09492417372267</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="F5" t="n">
-        <v>35.14942342451921</v>
+        <v>17.82937900436996</v>
       </c>
       <c r="G5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
         <v>3.98360056216997</v>
@@ -4583,34 +4583,34 @@
         <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>154.9161459087924</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.6181590127069</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="R5" t="n">
-        <v>104.6181590127069</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="S5" t="n">
-        <v>104.6181590127069</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="T5" t="n">
-        <v>104.6181590127069</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="U5" t="n">
-        <v>104.6181590127069</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6181590127069</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6181590127069</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="X5" t="n">
-        <v>104.6181590127069</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.6181590127069</v>
+        <v>75.07286664965892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="E6" t="n">
-        <v>167.8492079802444</v>
+        <v>148.882041212413</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8492079802444</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="G6" t="n">
-        <v>117.551221084159</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="H6" t="n">
-        <v>100.9370895426845</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2417925668747</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2417925668747</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2417925668747</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2417925668747</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="F8" t="n">
-        <v>140.996681329578</v>
+        <v>135.7380678296014</v>
       </c>
       <c r="G8" t="n">
-        <v>27.75157009228141</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="H8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993892</v>
@@ -4823,31 +4823,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454352</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454352</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454352</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454352</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U8" t="n">
-        <v>367.4869038041713</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V8" t="n">
-        <v>367.4869038041713</v>
+        <v>335.205529262398</v>
       </c>
       <c r="W8" t="n">
-        <v>367.4869038041713</v>
+        <v>335.205529262398</v>
       </c>
       <c r="X8" t="n">
-        <v>367.4869038041713</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.2417925668747</v>
+        <v>248.9831790668981</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>212.6103586555848</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C9" t="n">
-        <v>99.36524741828815</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D9" t="n">
-        <v>99.36524741828815</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="E9" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F9" t="n">
         <v>8.969012809993892</v>
@@ -4890,7 +4890,7 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.100581130178</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130178</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130178</v>
+        <v>335.205529262398</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130178</v>
+        <v>335.205529262398</v>
       </c>
       <c r="U9" t="n">
-        <v>439.100581130178</v>
+        <v>335.205529262398</v>
       </c>
       <c r="V9" t="n">
-        <v>325.8554698928814</v>
+        <v>335.205529262398</v>
       </c>
       <c r="W9" t="n">
-        <v>325.8554698928814</v>
+        <v>335.205529262398</v>
       </c>
       <c r="X9" t="n">
-        <v>325.8554698928814</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="Y9" t="n">
-        <v>212.6103586555848</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="10">
@@ -4954,7 +4954,7 @@
         <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
         <v>8.969012809993892</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.038871968309</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C11" t="n">
-        <v>869.0763550278976</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2862738200353</v>
+        <v>954.6078386576658</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>568.8195860594215</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.638712032431</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5851666348718</v>
+        <v>2046.701180270099</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069649</v>
+        <v>1877.764997342192</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946292</v>
+        <v>1877.764997342192</v>
       </c>
       <c r="E13" t="n">
-        <v>359.6192507122361</v>
+        <v>1729.851903759798</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>1729.851903759798</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760406</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.468954919267</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="V13" t="n">
-        <v>1564.78446671338</v>
+        <v>2657.468833799637</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.367296676419</v>
+        <v>2657.468833799637</v>
       </c>
       <c r="X13" t="n">
-        <v>1047.377745778402</v>
+        <v>2449.142224243868</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.5851666348718</v>
+        <v>2228.349645100338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.227217667256</v>
+        <v>1824.602900780216</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.227217667256</v>
+        <v>1455.640383839805</v>
       </c>
       <c r="D14" t="n">
-        <v>1580.227217667256</v>
+        <v>1097.374685233054</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.438965069012</v>
+        <v>711.5864326348101</v>
       </c>
       <c r="F14" t="n">
-        <v>783.453060279404</v>
+        <v>397.9052307464398</v>
       </c>
       <c r="G14" t="n">
-        <v>368.7127392273495</v>
+        <v>397.9052307464398</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169305</v>
+        <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169299</v>
       </c>
       <c r="J14" t="n">
         <v>291.0377674773526</v>
@@ -5285,43 +5285,43 @@
         <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275287</v>
+        <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235393</v>
+        <v>2364.220579235392</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163076</v>
+        <v>2922.039463163075</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140406</v>
+        <v>3363.623974140404</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049516</v>
+        <v>3647.062805049513</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584652</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="S14" t="n">
-        <v>3726.527800584652</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="T14" t="n">
-        <v>3667.767596979881</v>
+        <v>3522.003948117031</v>
       </c>
       <c r="U14" t="n">
-        <v>3414.263690581954</v>
+        <v>3268.500041719103</v>
       </c>
       <c r="V14" t="n">
-        <v>3083.200803238384</v>
+        <v>2937.437154375532</v>
       </c>
       <c r="W14" t="n">
-        <v>2730.432147968269</v>
+        <v>2584.668499105418</v>
       </c>
       <c r="X14" t="n">
-        <v>2356.96638970719</v>
+        <v>2211.202740844338</v>
       </c>
       <c r="Y14" t="n">
-        <v>1966.827057731378</v>
+        <v>2211.202740844338</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718615</v>
+        <v>87.41950470718614</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169299</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169305</v>
+        <v>184.6629209807617</v>
       </c>
       <c r="K15" t="n">
-        <v>340.9191340937601</v>
+        <v>451.0514990628286</v>
       </c>
       <c r="L15" t="n">
-        <v>745.4339928726406</v>
+        <v>855.5663578417089</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.840621506597</v>
+        <v>1346.972986475665</v>
       </c>
       <c r="N15" t="n">
-        <v>1755.661966290182</v>
+        <v>1865.794331259249</v>
       </c>
       <c r="O15" t="n">
-        <v>2037.254452037593</v>
+        <v>2318.194706560483</v>
       </c>
       <c r="P15" t="n">
-        <v>2381.012571295174</v>
+        <v>2370.340332577117</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.886573990975</v>
+        <v>2550.214335272918</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>317.4925871253862</v>
+        <v>861.6273667482795</v>
       </c>
       <c r="C16" t="n">
-        <v>317.4925871253862</v>
+        <v>692.6911838203727</v>
       </c>
       <c r="D16" t="n">
-        <v>167.3759477130506</v>
+        <v>542.5745444080369</v>
       </c>
       <c r="E16" t="n">
-        <v>167.3759477130506</v>
+        <v>394.6614508256438</v>
       </c>
       <c r="F16" t="n">
-        <v>167.3759477130506</v>
+        <v>247.7715033277331</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3759477130506</v>
+        <v>247.7715033277331</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130506</v>
+        <v>102.8788991331757</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169299</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525472</v>
+        <v>129.9765865525471</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923173</v>
+        <v>350.9282837923172</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553109</v>
+        <v>689.1968198553105</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229308</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135874</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="R16" t="n">
-        <v>2009.690713122867</v>
+        <v>1996.937179304786</v>
       </c>
       <c r="S16" t="n">
-        <v>1820.60117334683</v>
+        <v>1807.847639528749</v>
       </c>
       <c r="T16" t="n">
-        <v>1599.471116010594</v>
+        <v>1807.847639528749</v>
       </c>
       <c r="U16" t="n">
-        <v>1310.376375409781</v>
+        <v>1518.752898927936</v>
       </c>
       <c r="V16" t="n">
-        <v>1055.691887203894</v>
+        <v>1264.068410722049</v>
       </c>
       <c r="W16" t="n">
-        <v>766.2747171669337</v>
+        <v>1264.068410722049</v>
       </c>
       <c r="X16" t="n">
-        <v>538.2851662689163</v>
+        <v>1264.068410722049</v>
       </c>
       <c r="Y16" t="n">
-        <v>317.4925871253862</v>
+        <v>1043.275831578519</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
@@ -5501,61 +5501,61 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5589,28 +5589,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>535.3638672866915</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1662.137679823383</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609045</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897923</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
         <v>857.3827676902786</v>
@@ -5686,25 +5686,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5716,7 +5716,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
@@ -5738,31 +5738,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233286</v>
@@ -5771,22 +5771,22 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
@@ -5826,7 +5826,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
@@ -5835,19 +5835,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6694118551811</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q21" t="n">
         <v>2530.879212293269</v>
@@ -5887,34 +5887,34 @@
         <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897927</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796659</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511592</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076833</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6008,31 +6008,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6075,16 +6075,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q24" t="n">
         <v>2530.879212293269</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E25" t="n">
         <v>501.6849958039799</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749442</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042765</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283565</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597204</v>
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,10 +6449,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6461,22 +6461,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6491,7 +6491,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
@@ -6540,28 +6540,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315379</v>
+        <v>386.724545631539</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749437</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6619,13 +6619,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6649,22 +6649,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6777,22 +6777,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P33" t="n">
         <v>2322.031270281989</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749443</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6886,10 +6886,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6920,61 +6920,61 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511501</v>
+        <v>84.98040897511683</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076824</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951436</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501802</v>
@@ -7008,31 +7008,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P36" t="n">
-        <v>2555.644190323788</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042773</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.52870204436</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902775</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
@@ -7151,7 +7151,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7166,58 +7166,58 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039798</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042778</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443604</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902779</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313935</v>
@@ -7357,13 +7357,13 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511592</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315377</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749435</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,31 +7588,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,10 +7646,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7658,13 +7658,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7679,10 +7679,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
@@ -7740,13 +7740,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502118</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477735</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
         <v>857.3827676902786</v>
@@ -7819,37 +7819,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272129</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775036</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775176</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272214</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>106.7437663446525</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094453</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>348.9508612248991</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>362.0903062371252</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>179.4645009680793</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>19.46631192882614</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>96.33165587222463</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389939</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>144.3060123742192</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>63.85207809407616</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.62599847989905</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
         <v>153448.6945369143</v>
@@ -26332,28 +26332,28 @@
         <v>184734.3982194638</v>
       </c>
       <c r="I2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="J2" t="n">
         <v>184734.398219464</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="L2" t="n">
         <v>184734.3982194638</v>
       </c>
-      <c r="K2" t="n">
-        <v>184734.3982194638</v>
-      </c>
-      <c r="L2" t="n">
-        <v>184734.398219464</v>
-      </c>
       <c r="M2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
-      </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321841</v>
+        <v>345405.5970321823</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876345</v>
+        <v>50948.63134876519</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429535</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654373</v>
+        <v>93369.88484654319</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975327</v>
+        <v>143964.0818975334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.308408966200659e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757806</v>
+        <v>4764.558968757585</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908375</v>
+        <v>8128.948714908533</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194625</v>
+        <v>41060.19902194616</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383014</v>
+        <v>179249.6449383016</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613189</v>
+        <v>24549.15438613172</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875946</v>
+        <v>31434.59456875951</v>
       </c>
       <c r="P3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318199</v>
+        <v>348982.9265318204</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26430,34 +26430,34 @@
         <v>14701.82240068823</v>
       </c>
       <c r="G4" t="n">
+        <v>45839.31483610846</v>
+      </c>
+      <c r="H4" t="n">
         <v>45839.31483610853</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45839.31483610849</v>
       </c>
       <c r="I4" t="n">
         <v>45839.31483610853</v>
       </c>
       <c r="J4" t="n">
-        <v>45839.31483610861</v>
+        <v>45839.31483610856</v>
       </c>
       <c r="K4" t="n">
-        <v>45839.31483610848</v>
+        <v>45839.31483610853</v>
       </c>
       <c r="L4" t="n">
+        <v>45839.31483610853</v>
+      </c>
+      <c r="M4" t="n">
         <v>45839.3148361085</v>
       </c>
-      <c r="M4" t="n">
-        <v>45839.31483610847</v>
-      </c>
       <c r="N4" t="n">
-        <v>45839.31483610857</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="O4" t="n">
-        <v>45839.31483610853</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="P4" t="n">
-        <v>45839.31483610858</v>
+        <v>45839.31483610849</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425687</v>
+        <v>42410.88882425677</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26479,37 +26479,37 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390709</v>
+        <v>82183.39720390704</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="N5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="N5" t="n">
-        <v>95106.43410215525</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552065.0141687973</v>
+        <v>-552065.0141687958</v>
       </c>
       <c r="C6" t="n">
-        <v>-244777.4585672125</v>
+        <v>-244777.4585672141</v>
       </c>
       <c r="D6" t="n">
         <v>-258601.9815977312</v>
       </c>
       <c r="E6" t="n">
-        <v>-643288.4584896227</v>
+        <v>-643636.0774194285</v>
       </c>
       <c r="F6" t="n">
-        <v>-28527.36698818667</v>
+        <v>-28782.99655214734</v>
       </c>
       <c r="G6" t="n">
-        <v>-100175.4326163326</v>
+        <v>-100175.4326163333</v>
       </c>
       <c r="H6" t="n">
-        <v>43788.64928120009</v>
+        <v>43788.64928119989</v>
       </c>
       <c r="I6" t="n">
+        <v>43788.64928119998</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39024.09031244258</v>
+      </c>
+      <c r="K6" t="n">
+        <v>35659.7005662915</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2728.450259253834</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-135460.9956571013</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19239.49489506839</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12354.05471244044</v>
+      </c>
+      <c r="P6" t="n">
         <v>43788.64928119996</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39024.09031244212</v>
-      </c>
-      <c r="K6" t="n">
-        <v>35659.70056629169</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2728.450259253979</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-135460.9956571012</v>
-      </c>
-      <c r="N6" t="n">
-        <v>19239.49489506804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12354.05471244051</v>
-      </c>
-      <c r="P6" t="n">
-        <v>43788.64928119989</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="H2" t="n">
         <v>31.61020235221397</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="I2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228109</v>
+        <v>352.1154025228093</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26799,7 +26799,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>931.631950146163</v>
+        <v>931.6319501461624</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26811,7 +26811,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26820,10 +26820,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228109</v>
+        <v>352.1154025228093</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475716</v>
+        <v>44.74454074475869</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497587</v>
+        <v>81.79094321497541</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118484</v>
+        <v>106.5922268118491</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009177</v>
+        <v>31.58492398009284</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
@@ -27021,10 +27021,10 @@
         <v>719.2887952773692</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438702</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427895</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703263</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009222</v>
+        <v>31.58492398009284</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773688</v>
+        <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438702</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.62316204279</v>
+        <v>130.6231620427902</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009177</v>
+        <v>31.58492398009284</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
@@ -27267,10 +27267,10 @@
         <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438702</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427895</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,22 +27391,22 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.6771151614789</v>
       </c>
       <c r="H2" t="n">
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.90331045177</v>
+        <v>155.9033104517703</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107654</v>
+        <v>60.90377530107706</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996143</v>
+        <v>40.0279429699622</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11.74751027438234</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,16 +27418,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855253</v>
+        <v>27.67667403855341</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621755</v>
+        <v>69.44336957621823</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443893</v>
+        <v>126.6666668443897</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365426</v>
+        <v>176.7634676365427</v>
       </c>
       <c r="T2" t="n">
         <v>216.8993262493832</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>331.0308856703812</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.4524810448789</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,28 +27461,28 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>129.234982517607</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.0297712455583</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5861368634446</v>
+        <v>118.3760538164128</v>
       </c>
       <c r="H3" t="n">
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>72.94759778420799</v>
+        <v>73.44590915279194</v>
       </c>
       <c r="J3" t="n">
-        <v>37.0717145088426</v>
+        <v>55.28179755587577</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.54112977924321</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.09276014253687</v>
+        <v>43.30284318957015</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006855</v>
+        <v>80.44540546303696</v>
       </c>
       <c r="S3" t="n">
-        <v>139.4050811729927</v>
+        <v>157.6151642200256</v>
       </c>
       <c r="T3" t="n">
         <v>197.1119545918172</v>
@@ -27555,37 +27555,37 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199557</v>
+        <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956169</v>
+        <v>82.10359380956189</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018257</v>
+        <v>55.24219515018289</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323747</v>
+        <v>40.48311410323788</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660789</v>
+        <v>39.39257270660833</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988108</v>
+        <v>30.5190105198815</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406139</v>
+        <v>48.70751749406179</v>
       </c>
       <c r="P4" t="n">
-        <v>60.9322119972874</v>
+        <v>60.93221199728772</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850141</v>
+        <v>98.33557584850163</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545822</v>
+        <v>148.7431818545824</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839193</v>
+        <v>212.9509385839194</v>
       </c>
       <c r="T4" t="n">
         <v>225.2325691137615</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>353.1698963075377</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27640,7 +27640,7 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,10 +27655,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2236106924079309</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27670,7 +27670,7 @@
         <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2180195592479</v>
+        <v>201.4230125321233</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>355.1780418203831</v>
       </c>
     </row>
     <row r="6">
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8500734282763</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
         <v>86.69488686188785</v>
       </c>
       <c r="H6" t="n">
-        <v>87.54325028331237</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.3372734007017</v>
+        <v>26.27283823833497</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
         <v>92.6799817290989</v>
@@ -27865,16 +27865,16 @@
         <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>207.7600497819524</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>95.3531516584621</v>
@@ -27907,19 +27907,19 @@
         <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>186.6500712433334</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452113</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>284.3709739849241</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>68.15280819318963</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27974,13 +27974,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112496</v>
       </c>
       <c r="T9" t="n">
         <v>196.0368949650912</v>
@@ -27989,16 +27989,16 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>107.0241541654447</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.57003565238071</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,10 +28026,10 @@
         <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9683326469616</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>126.0055744062474</v>
       </c>
       <c r="J10" t="n">
         <v>66.29456574971167</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221667</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221446</v>
       </c>
       <c r="Y32" t="n">
         <v>31.61020235221395</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605378</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y41" t="n">
         <v>31.61020235221395</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624364</v>
+        <v>1.415539306624358</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396677</v>
+        <v>14.49689192396671</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863586</v>
+        <v>54.57257911863562</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256098</v>
+        <v>120.1421292256092</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750191</v>
+        <v>180.0619080750184</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301246</v>
+        <v>223.3827191301236</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743056</v>
+        <v>248.5563162743045</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436238</v>
+        <v>247.6231466436227</v>
       </c>
       <c r="O2" t="n">
-        <v>238.502448349006</v>
+        <v>238.502448349005</v>
       </c>
       <c r="P2" t="n">
-        <v>203.556321716717</v>
+        <v>203.5563217167161</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982319</v>
+        <v>152.8623202982313</v>
       </c>
       <c r="R2" t="n">
-        <v>88.9188709697428</v>
+        <v>88.91887096974241</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970273</v>
+        <v>32.25660194970259</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748158</v>
+        <v>6.196523314748131</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299491</v>
+        <v>0.1132431445299486</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.757380299766046</v>
+        <v>0.7573802997660428</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898393</v>
+        <v>7.314699210898362</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720817</v>
+        <v>26.07647084720805</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079124</v>
+        <v>71.55582911079092</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951163</v>
+        <v>122.3003091951158</v>
       </c>
       <c r="L3" t="n">
-        <v>156.764462826907</v>
+        <v>156.764462826906</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690512</v>
+        <v>160.3441169690501</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303662</v>
+        <v>149.5517951303651</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4185551534997</v>
+        <v>160.070566560283</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211146</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645179</v>
+        <v>96.67893089645136</v>
       </c>
       <c r="R3" t="n">
-        <v>47.0240154538954</v>
+        <v>47.0240154538952</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381229</v>
+        <v>14.06800688381223</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004369</v>
+        <v>3.052774103004356</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039779</v>
+        <v>0.04982765130039757</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706425</v>
+        <v>0.6349622012706397</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660808</v>
+        <v>5.645391207660783</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0950451073026</v>
+        <v>19.09504510730252</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983442</v>
+        <v>44.89182762983422</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035281</v>
+        <v>73.77106302035249</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800082</v>
+        <v>94.4015621780004</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099716</v>
+        <v>99.53321124099672</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535211</v>
+        <v>97.16653394535169</v>
       </c>
       <c r="O4" t="n">
-        <v>89.7490209577814</v>
+        <v>89.749020957781</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186022</v>
+        <v>76.79579205185989</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094444</v>
+        <v>53.16942578094421</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258725</v>
+        <v>28.55020952258712</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305292</v>
+        <v>11.06565945305287</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520017</v>
+        <v>2.713020314520005</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748963</v>
+        <v>0.03463430188748948</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,10 +31610,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989595</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601099</v>
+        <v>4.709819673601097</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226727</v>
+        <v>48.23444073226725</v>
       </c>
       <c r="I14" t="n">
         <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223016</v>
+        <v>399.7400575223015</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058362</v>
+        <v>599.106724305836</v>
       </c>
       <c r="L14" t="n">
-        <v>743.244868141806</v>
+        <v>743.2448681418057</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622095</v>
+        <v>827.0031237622092</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098287</v>
+        <v>840.3848989098284</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304577</v>
+        <v>793.5516295304574</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384305</v>
+        <v>677.2779563384303</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.607539277591</v>
+        <v>508.6075392775908</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718453</v>
+        <v>295.8532100718452</v>
       </c>
       <c r="S14" t="n">
         <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118882</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880878</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681948</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137566</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146183</v>
+        <v>86.76232079146179</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.0824397667361</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744267</v>
+        <v>406.9208107744266</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332888</v>
+        <v>547.1552472332886</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755094</v>
+        <v>638.5043658755091</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111967</v>
+        <v>655.4036765111965</v>
       </c>
       <c r="O15" t="n">
-        <v>427.0330987347584</v>
+        <v>599.5663205062965</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068363</v>
+        <v>186.646756926082</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999624</v>
+        <v>321.6726858999623</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>156.4595430731125</v>
       </c>
       <c r="S15" t="n">
-        <v>46.807443127623</v>
+        <v>46.80744312762298</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238125</v>
+        <v>0.1657878741238124</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244429</v>
+        <v>2.112662964244428</v>
       </c>
       <c r="H16" t="n">
         <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291429</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720811</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913072</v>
+        <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023036</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.169522658788</v>
+        <v>331.1695226587879</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102408</v>
+        <v>323.2950516102407</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824763</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118897</v>
+        <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150494</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320855</v>
+        <v>94.99300928320852</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869608</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.02683266540801</v>
+        <v>9.026832665408007</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860599</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,34 +32306,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>593.4871659531825</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>383.0908173618448</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>472.9693813169761</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578282</v>
+        <v>186.643369976408</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32795,19 +32795,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>601.8588519561649</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>184.028899617985</v>
       </c>
       <c r="R24" t="n">
         <v>170.6946332877214</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33275,7 +33275,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>577.6550422513128</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>358.0756880380876</v>
       </c>
       <c r="Q33" t="n">
         <v>350.9392912691326</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33749,13 +33749,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>209.0440289417422</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33986,7 +33986,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>577.6550422513128</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34129,7 +34129,7 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383711</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
         <v>653.6149895171636</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34378,7 +34378,7 @@
         <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.84527081176</v>
       </c>
       <c r="O44" t="n">
         <v>865.7509905565677</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750701</v>
+        <v>366.6975250682018</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927319317</v>
+        <v>8.404236927318266</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703286</v>
+        <v>18.21008304703179</v>
       </c>
       <c r="O3" t="n">
-        <v>6.822310709055294</v>
+        <v>17.47432211583858</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678431</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
+        <v>112.1126601249237</v>
+      </c>
+      <c r="N9" t="n">
         <v>57.82896157694119</v>
-      </c>
-      <c r="N9" t="n">
-        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956153</v>
+        <v>218.6941529956152</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608557</v>
+        <v>379.0168732608554</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718188</v>
+        <v>507.4784531718184</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349368</v>
+        <v>596.6568905349365</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132378</v>
+        <v>610.9718353132375</v>
       </c>
       <c r="O14" t="n">
-        <v>563.453418108771</v>
+        <v>563.4534181087706</v>
       </c>
       <c r="P14" t="n">
-        <v>446.044960583161</v>
+        <v>446.0449605831607</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031415</v>
+        <v>286.3018494031413</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771317</v>
+        <v>80.26767225771306</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2448131000694</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000677</v>
+        <v>269.0793718000676</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534147</v>
+        <v>408.6008674534144</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534911</v>
+        <v>496.3703319534907</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278635</v>
+        <v>524.0619644278632</v>
       </c>
       <c r="O15" t="n">
-        <v>284.436854290314</v>
+        <v>456.9700760618521</v>
       </c>
       <c r="P15" t="n">
-        <v>347.230423492506</v>
+        <v>52.67234951175171</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139409</v>
+        <v>181.6909118139408</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.78003910914859</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540832</v>
+        <v>56.00609145540827</v>
       </c>
       <c r="K16" t="n">
         <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626198</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206286</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894694</v>
+        <v>367.4272239894693</v>
       </c>
       <c r="O16" t="n">
-        <v>323.200434896516</v>
+        <v>323.2004348965158</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767832</v>
+        <v>252.7955417767831</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335501</v>
+        <v>90.74467096335495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>454.9327861733084</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>334.4150015371019</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133838</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36294,7 +36294,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36443,19 +36443,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>459.7248180341467</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="R24" t="n">
         <v>25.01512932375741</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193538</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36534,7 +36534,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169886</v>
       </c>
       <c r="M26" t="n">
         <v>671.8997542381569</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564157</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36923,7 +36923,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>435.0587978068684</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>224.1012806237574</v>
       </c>
       <c r="Q33" t="n">
         <v>210.9575171831111</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641584</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.191415092284612e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.45993426216029</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37397,13 +37397,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193547</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414978</v>
@@ -37470,13 +37470,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895095</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.45993426216029</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37634,7 +37634,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>435.0587978068684</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116848</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
         <v>433.5251384721831</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151681</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O44" t="n">
         <v>635.6527791348809</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>460.0739271306256</v>
+        <v>224.1012806237574</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
